--- a/Coffee Machine Testcases.xlsx
+++ b/Coffee Machine Testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E1E2D9-7640-4F04-9AF6-6528DB4AF670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2091AE52-A354-4F8D-A95C-DBB3E227DDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C493D555-FE19-4ADD-9268-4AE346D3BE79}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
